--- a/biology/Zoologie/Coelotes/Coelotes.xlsx
+++ b/biology/Zoologie/Coelotes/Coelotes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coelotes est un genre d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coelotes est un genre d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozones paléarctique et indomalaise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozones paléarctique et indomalaise.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 24.5, 21/11/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 24.5, 21/11/2023) :
 Coelotes acerbus Liu, Li &amp; Pham, 2010
 Coelotes adnexus Zhang, Zhu &amp; Wang, 2017
 Coelotes aguniensis Shimojana, 2000
@@ -732,11 +748,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Blackwall en 1841.
-Urobia[2] a été placé en synonymie par Lehtinen en 1967[3].
-Speleocicurina[4] a été placé en synonymie par Ono et Ogata en 2018[5].
+Urobia a été placé en synonymie par Lehtinen en 1967.
+Speleocicurina a été placé en synonymie par Ono et Ogata en 2018.
 </t>
         </is>
       </c>
@@ -765,7 +783,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blackwall, 1841 : « The difference in the number of eyes with which spiders are provided proposed as the basis of their distribution into tribes; with descriptions of newly discovered species and the characters of a new family and three new genera of spiders. » Transactions of the Linnean Society of London, vol. 18, p. 601-670.</t>
         </is>
